--- a/Python/Projekt/dane.xlsx
+++ b/Python/Projekt/dane.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcin\Desktop\Pyton\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcin\Desktop\Projekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C575FF4E-3E3F-4B8B-8AC3-AA17115014EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9CA6A46-89C5-4A55-9B75-1A5BE9EAE076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -775,7 +775,7 @@
   <dimension ref="A1:H65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -785,7 +785,7 @@
     <col min="8" max="8" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -817,7 +817,7 @@
         <v>-0.03</v>
       </c>
       <c r="C2">
-        <v>9387.0104080953406</v>
+        <v>9.3870104080953407</v>
       </c>
       <c r="D2" s="2">
         <v>3021529236</v>
@@ -841,7 +841,7 @@
         <v>0.06</v>
       </c>
       <c r="C3">
-        <v>9415.0421364701433</v>
+        <v>9.4150421364701433</v>
       </c>
       <c r="D3" s="2">
         <v>3062769479</v>
@@ -865,7 +865,7 @@
         <v>0.03</v>
       </c>
       <c r="C4">
-        <v>9747.2871642980881</v>
+        <v>9.7472871642980881</v>
       </c>
       <c r="D4" s="2">
         <v>3117373096</v>
@@ -888,7 +888,7 @@
         <v>0.05</v>
       </c>
       <c r="C5">
-        <v>10266.772213584882</v>
+        <v>10.266772213584881</v>
       </c>
       <c r="D5" s="2">
         <v>3184063049</v>
@@ -911,7 +911,7 @@
         <v>-0.2</v>
       </c>
       <c r="C6">
-        <v>10824.46609785044</v>
+        <v>10.82446609785044</v>
       </c>
       <c r="D6" s="2">
         <v>3251253200</v>
@@ -934,7 +934,7 @@
         <v>-0.11</v>
       </c>
       <c r="C7">
-        <v>11310.600441848921</v>
+        <v>11.310600441848921</v>
       </c>
       <c r="D7" s="2">
         <v>3318997522</v>
@@ -957,7 +957,7 @@
         <v>-0.06</v>
       </c>
       <c r="C8">
-        <v>11862.646324054054</v>
+        <v>11.862646324054055</v>
       </c>
       <c r="D8" s="2">
         <v>3389087189</v>
@@ -980,7 +980,7 @@
         <v>-0.02</v>
       </c>
       <c r="C9">
-        <v>12237.369275712847</v>
+        <v>12.237369275712847</v>
       </c>
       <c r="D9" s="2">
         <v>3459014378</v>
@@ -1003,7 +1003,7 @@
         <v>-0.08</v>
       </c>
       <c r="C10">
-        <v>12905.28307166949</v>
+        <v>12.905283071669491</v>
       </c>
       <c r="D10" s="2">
         <v>3530702399</v>
@@ -1026,7 +1026,7 @@
         <v>0.05</v>
       </c>
       <c r="C11">
-        <v>13761.785288614103</v>
+        <v>13.761785288614103</v>
       </c>
       <c r="D11" s="2">
         <v>3604811636</v>
@@ -1049,7 +1049,7 @@
         <v>0.03</v>
       </c>
       <c r="C12">
-        <v>14899.124437287373</v>
+        <v>14.899124437287373</v>
       </c>
       <c r="D12" s="2">
         <v>3680587906</v>
@@ -1072,7 +1072,7 @@
         <v>-0.08</v>
       </c>
       <c r="C13">
-        <v>15503.854716903985</v>
+        <v>15.503854716903986</v>
       </c>
       <c r="D13" s="2">
         <v>3758612691</v>
@@ -1095,7 +1095,7 @@
         <v>0.01</v>
       </c>
       <c r="C14">
-        <v>16224.596650076503</v>
+        <v>16.224596650076503</v>
       </c>
       <c r="D14" s="2">
         <v>3834445609</v>
@@ -1118,7 +1118,7 @@
         <v>0.16</v>
       </c>
       <c r="C15">
-        <v>17085.092898237614</v>
+        <v>17.085092898237612</v>
       </c>
       <c r="D15" s="2">
         <v>3911067849</v>
@@ -1141,7 +1141,7 @@
         <v>-7.0000000000000007E-2</v>
       </c>
       <c r="C16">
-        <v>17011.071682690526</v>
+        <v>17.011071682690527</v>
       </c>
       <c r="D16" s="2">
         <v>3987293598</v>
@@ -1164,7 +1164,7 @@
         <v>-0.01</v>
       </c>
       <c r="C17">
-        <v>17052.752626187128</v>
+        <v>17.052752626187129</v>
       </c>
       <c r="D17" s="2">
         <v>4062070090</v>
@@ -1187,7 +1187,7 @@
         <v>-0.1</v>
       </c>
       <c r="C18">
-        <v>17989.112065979003</v>
+        <v>17.989112065979004</v>
       </c>
       <c r="D18" s="2">
         <v>4135757570</v>
@@ -1210,7 +1210,7 @@
         <v>0.18</v>
       </c>
       <c r="C19">
-        <v>18498.63421661334</v>
+        <v>18.49863421661334</v>
       </c>
       <c r="D19" s="2">
         <v>4208958121</v>
@@ -1233,7 +1233,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C20">
-        <v>19069.290539681668</v>
+        <v>19.069290539681667</v>
       </c>
       <c r="D20" s="2">
         <v>4283430290</v>
@@ -1256,7 +1256,7 @@
         <v>0.16</v>
       </c>
       <c r="C21">
-        <v>19609.020291566714</v>
+        <v>19.609020291566715</v>
       </c>
       <c r="D21" s="2">
         <v>4360055566</v>
@@ -1279,7 +1279,7 @@
         <v>0.26</v>
       </c>
       <c r="C22">
-        <v>19488.524409128888</v>
+        <v>19.488524409128889</v>
       </c>
       <c r="D22" s="2">
         <v>4437602155</v>
@@ -1302,7 +1302,7 @@
         <v>0.32</v>
       </c>
       <c r="C23">
-        <v>19022.90478058068</v>
+        <v>19.022904780580681</v>
       </c>
       <c r="D23" s="2">
         <v>4516925444</v>
@@ -1325,7 +1325,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="C24">
-        <v>18871.097906658393</v>
+        <v>18.871097906658392</v>
       </c>
       <c r="D24" s="2">
         <v>4599538535</v>
@@ -1348,7 +1348,7 @@
         <v>0.31</v>
       </c>
       <c r="C25">
-        <v>18991.910432969198</v>
+        <v>18.991910432969199</v>
       </c>
       <c r="D25" s="2">
         <v>4682924030</v>
@@ -1371,7 +1371,7 @@
         <v>0.16</v>
       </c>
       <c r="C26">
-        <v>19647.801419688421</v>
+        <v>19.64780141968842</v>
       </c>
       <c r="D26" s="2">
         <v>4766039787</v>
@@ -1394,7 +1394,7 @@
         <v>0.12</v>
       </c>
       <c r="C27">
-        <v>20311.901625594561</v>
+        <v>20.311901625594562</v>
       </c>
       <c r="D27" s="2">
         <v>4850740398</v>
@@ -1417,7 +1417,7 @@
         <v>0.18</v>
       </c>
       <c r="C28">
-        <v>20614.963191398914</v>
+        <v>20.614963191398914</v>
       </c>
       <c r="D28" s="2">
         <v>4937711316</v>
@@ -1440,7 +1440,7 @@
         <v>0.32</v>
       </c>
       <c r="C29">
-        <v>21250.074601500124</v>
+        <v>21.250074601500124</v>
       </c>
       <c r="D29" s="2">
         <v>5027029981</v>
@@ -1463,7 +1463,7 @@
         <v>0.39</v>
       </c>
       <c r="C30">
-        <v>22085.130011617039</v>
+        <v>22.085130011617039</v>
       </c>
       <c r="D30" s="2">
         <v>5117166674</v>
@@ -1486,7 +1486,7 @@
         <v>0.27</v>
       </c>
       <c r="C31">
-        <v>22386.637474888219</v>
+        <v>22.386637474888218</v>
       </c>
       <c r="D31" s="2">
         <v>5207654611</v>
@@ -1509,7 +1509,7 @@
         <v>0.45</v>
       </c>
       <c r="C32">
-        <v>22728.988297609118</v>
+        <v>22.728988297609117</v>
       </c>
       <c r="D32" s="2">
         <v>5299246388</v>
@@ -1532,7 +1532,7 @@
         <v>0.41</v>
       </c>
       <c r="C33">
-        <v>23186.101443204017</v>
+        <v>23.186101443204016</v>
       </c>
       <c r="D33" s="2">
         <v>5388495973</v>
@@ -1555,7 +1555,7 @@
         <v>0.22</v>
       </c>
       <c r="C34">
-        <v>22528.172032547292</v>
+        <v>22.528172032547293</v>
       </c>
       <c r="D34" s="2">
         <v>5477123965.5</v>
@@ -1578,7 +1578,7 @@
         <v>0.23</v>
       </c>
       <c r="C35">
-        <v>22755.78698466023</v>
+        <v>22.755786984660229</v>
       </c>
       <c r="D35" s="2">
         <v>5564778620</v>
@@ -1601,7 +1601,7 @@
         <v>0.31</v>
       </c>
       <c r="C36">
-        <v>22992.946898531394</v>
+        <v>22.992946898531393</v>
       </c>
       <c r="D36" s="2">
         <v>5650853176.5</v>
@@ -1624,7 +1624,7 @@
         <v>0.44</v>
       </c>
       <c r="C37">
-        <v>23532.083006182194</v>
+        <v>23.532083006182194</v>
       </c>
       <c r="D37" s="2">
         <v>5736505516</v>
@@ -1647,7 +1647,7 @@
         <v>0.33</v>
       </c>
       <c r="C38">
-        <v>24258.167449060042</v>
+        <v>24.258167449060043</v>
       </c>
       <c r="D38" s="2">
         <v>5822614625.5</v>
@@ -1670,7 +1670,7 @@
         <v>0.46</v>
       </c>
       <c r="C39">
-        <v>24401.90570535728</v>
+        <v>24.401905705357279</v>
       </c>
       <c r="D39" s="2">
         <v>5908466556.5</v>
@@ -1693,7 +1693,7 @@
         <v>0.61</v>
       </c>
       <c r="C40">
-        <v>24303.777314257986</v>
+        <v>24.303777314257985</v>
       </c>
       <c r="D40" s="2">
         <v>5994040063.5</v>
@@ -1716,7 +1716,7 @@
         <v>0.38</v>
       </c>
       <c r="C41">
-        <v>24853.727678796316</v>
+        <v>24.853727678796318</v>
       </c>
       <c r="D41" s="2">
         <v>6078404337</v>
@@ -1739,7 +1739,7 @@
         <v>0.39</v>
       </c>
       <c r="C42">
-        <v>25510.552796846834</v>
+        <v>25.510552796846834</v>
       </c>
       <c r="D42" s="2">
         <v>6161884825.5</v>
@@ -1762,7 +1762,7 @@
         <v>0.53</v>
       </c>
       <c r="C43">
-        <v>25706.293447616583</v>
+        <v>25.706293447616584</v>
       </c>
       <c r="D43" s="2">
         <v>6245109995.5</v>
@@ -1785,7 +1785,7 @@
         <v>0.63</v>
       </c>
       <c r="C44">
-        <v>26276.868728392019</v>
+        <v>26.276868728392017</v>
       </c>
       <c r="D44" s="2">
         <v>6327526596</v>
@@ -1808,7 +1808,7 @@
         <v>0.62</v>
       </c>
       <c r="C45">
-        <v>27669.489789266514</v>
+        <v>27.669489789266514</v>
       </c>
       <c r="D45" s="2">
         <v>6409664474</v>
@@ -1831,7 +1831,7 @@
         <v>0.53</v>
       </c>
       <c r="C46">
-        <v>28632.505929420236</v>
+        <v>28.632505929420237</v>
       </c>
       <c r="D46" s="2">
         <v>6492626975.5</v>
@@ -1854,7 +1854,7 @@
         <v>0.68</v>
       </c>
       <c r="C47">
-        <v>29614.39409933834</v>
+        <v>29.614394099338341</v>
       </c>
       <c r="D47" s="2">
         <v>6575644307.5</v>
@@ -1877,7 +1877,7 @@
         <v>0.64</v>
       </c>
       <c r="C48">
-        <v>30628.396101337905</v>
+        <v>30.628396101337906</v>
       </c>
       <c r="D48" s="2">
         <v>6659721142</v>
@@ -1900,7 +1900,7 @@
         <v>0.66</v>
       </c>
       <c r="C49">
-        <v>31534.644030383013</v>
+        <v>31.534644030383014</v>
       </c>
       <c r="D49" s="2">
         <v>6744171461.5</v>
@@ -1923,7 +1923,7 @@
         <v>0.54</v>
       </c>
       <c r="C50">
-        <v>32074.198560429097</v>
+        <v>32.074198560429096</v>
       </c>
       <c r="D50" s="2">
         <v>6830129091</v>
@@ -1946,7 +1946,7 @@
         <v>0.66</v>
       </c>
       <c r="C51">
-        <v>31541.921943123711</v>
+        <v>31.541921943123711</v>
       </c>
       <c r="D51" s="2">
         <v>6916129027</v>
@@ -1969,7 +1969,7 @@
         <v>0.73</v>
       </c>
       <c r="C52">
-        <v>33355.90344252027</v>
+        <v>33.355903442520273</v>
       </c>
       <c r="D52" s="2">
         <v>7000671233</v>
@@ -1992,7 +1992,7 @@
         <v>0.61</v>
       </c>
       <c r="C53">
-        <v>34504.538119267396</v>
+        <v>34.504538119267394</v>
       </c>
       <c r="D53" s="2">
         <v>7086201663.5</v>
@@ -2015,7 +2015,7 @@
         <v>0.65</v>
       </c>
       <c r="C54">
-        <v>35000.020343141608</v>
+        <v>35.000020343141607</v>
       </c>
       <c r="D54" s="2">
         <v>7175816385</v>
@@ -2038,7 +2038,7 @@
         <v>0.68</v>
       </c>
       <c r="C55">
-        <v>35301.655844618872</v>
+        <v>35.301655844618871</v>
       </c>
       <c r="D55" s="2">
         <v>7265314967</v>
@@ -2061,7 +2061,7 @@
         <v>0.75</v>
       </c>
       <c r="C56">
-        <v>35450.094746040755</v>
+        <v>35.450094746040755</v>
       </c>
       <c r="D56" s="2">
         <v>7353910925.5</v>
@@ -2084,7 +2084,7 @@
         <v>0.9</v>
       </c>
       <c r="C57">
-        <v>35404.896970741727</v>
+        <v>35.404896970741724</v>
       </c>
       <c r="D57" s="2">
         <v>7441471720.5</v>
@@ -2107,7 +2107,7 @@
         <v>1.01</v>
       </c>
       <c r="C58">
-        <v>35416.656076051775</v>
+        <v>35.416656076051773</v>
       </c>
       <c r="D58" s="2">
         <v>7528523333.5</v>
@@ -2130,7 +2130,7 @@
         <v>0.92</v>
       </c>
       <c r="C59">
-        <v>35989.897876260009</v>
+        <v>35.989897876260009</v>
       </c>
       <c r="D59" s="2">
         <v>7614113551.5</v>
@@ -2153,7 +2153,7 @@
         <v>0.85</v>
       </c>
       <c r="C60">
-        <v>36730.426557362771</v>
+        <v>36.730426557362769</v>
       </c>
       <c r="D60" s="2">
         <v>7696494847.5</v>
@@ -2176,7 +2176,7 @@
         <v>0.98</v>
       </c>
       <c r="C61">
-        <v>37104.277857811889</v>
+        <v>37.104277857811887</v>
       </c>
       <c r="D61" s="2">
         <v>7776892015</v>
@@ -2199,7 +2199,7 @@
         <v>1.01</v>
       </c>
       <c r="C62">
-        <v>35126.526123731026</v>
+        <v>35.126526123731026</v>
       </c>
       <c r="D62" s="2">
         <v>7856138789.5</v>
@@ -2222,7 +2222,7 @@
         <v>0.85</v>
       </c>
       <c r="C63">
-        <v>36991.736275664021</v>
+        <v>36.991736275664024</v>
       </c>
       <c r="D63" s="2">
         <v>7921184346</v>
@@ -2245,7 +2245,7 @@
         <v>0.89</v>
       </c>
       <c r="C64">
-        <v>37293.836392774458</v>
+        <v>37.293836392774459</v>
       </c>
       <c r="D64" s="2">
         <v>7989981519.5</v>
@@ -2268,7 +2268,7 @@
         <v>1.17</v>
       </c>
       <c r="C65">
-        <v>37791.568711024804</v>
+        <v>37.791568711024802</v>
       </c>
       <c r="D65" s="2">
         <v>8061876001</v>
